--- a/项目说明.xlsx
+++ b/项目说明.xlsx
@@ -356,7 +356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
